--- a/biology/Histoire de la zoologie et de la botanique/Institut_de_recherche_Senckenberg/Institut_de_recherche_Senckenberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Institut_de_recherche_Senckenberg/Institut_de_recherche_Senckenberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Institut de recherche Senckenberg (en allemand Forschungsinstitut Senckenberg) est une structure faisant partie du Muséum Senckenberg de Francfort-sur-le-Main. Les scientifiques de l’institut de recherche s’occupent des collections scientifiques du muséum en tant que conservateurs mais aussi dans leur programme de recherche. Ils ont aussi la charge d’enrichir les collections grâce à des missions scientifiques. Outre ces recherches, ils collaborent avec les pédagogues du muséum pour l’organisation des collections.
 </t>
@@ -511,7 +523,9 @@
           <t>Quelques scientifiques associés avec l’Institut et le muséum Senckenberg</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eduard Rüppell (1794-1884)
 Adolph Reuss (1804-1878)
@@ -554,7 +568,9 @@
           <t>Lien interne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>FK Senckenberg</t>
         </is>
@@ -584,7 +600,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Site officiel
  Portail de l’histoire de la zoologie et de la botanique                     </t>
